--- a/lab2/tabelas/tabelas comando conversor.xlsx
+++ b/lab2/tabelas/tabelas comando conversor.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="5.2.f" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -63,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -72,10 +72,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color theme="3"/>
       </left>
       <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right style="medium">
         <color theme="3"/>
       </right>
       <top style="thin">
@@ -88,51 +103,6 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="3"/>
-      </left>
-      <right style="thin">
-        <color theme="3"/>
-      </right>
-      <top style="thin">
-        <color theme="3"/>
-      </top>
-      <bottom style="thin">
-        <color theme="3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3"/>
-      </left>
-      <right style="medium">
-        <color theme="3"/>
-      </right>
-      <top style="thin">
-        <color theme="3"/>
-      </top>
-      <bottom style="thin">
-        <color theme="3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="3"/>
-      </left>
-      <right style="thin">
-        <color theme="3"/>
-      </right>
-      <top style="thin">
-        <color theme="3"/>
-      </top>
-      <bottom style="medium">
-        <color theme="3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="3"/>
       </left>
       <right style="thin">
@@ -249,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,12 +249,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,6 +416,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15.915494309189533</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.849358347367168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.93662073189215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9577471545947667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9788735772973851</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0661359618223656</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -548,11 +530,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="454661248"/>
-        <c:axId val="454662032"/>
+        <c:axId val="205908192"/>
+        <c:axId val="205880736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="454661248"/>
+        <c:axId val="205908192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -595,7 +577,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454662032"/>
+        <c:crossAx val="205880736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -603,7 +585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="454662032"/>
+        <c:axId val="205880736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,7 +636,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454661248"/>
+        <c:crossAx val="205908192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1615,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,67 +1608,85 @@
   <sheetData>
     <row r="2" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9">
+      <c r="E4" s="6">
+        <f>(50/(2*PI())*(1+COS(D4*PI()/180)))</f>
+        <v>15.915494309189533</v>
+      </c>
+      <c r="F4" s="7">
         <v>14.5</v>
       </c>
     </row>
     <row r="5" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>30</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E9" si="0">(50/(2*PI())*(1+COS(D5*PI()/180)))</f>
+        <v>14.849358347367168</v>
+      </c>
+      <c r="F5" s="2">
         <v>13.2</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>60</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3">
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>11.93662073189215</v>
+      </c>
+      <c r="F6" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>90</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>7.9577471545947667</v>
+      </c>
+      <c r="F7" s="2">
         <v>6.22</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>120</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3">
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>3.9788735772973851</v>
+      </c>
+      <c r="F8" s="2">
         <v>2.08</v>
       </c>
     </row>
     <row r="9" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>150</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6">
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0661359618223656</v>
+      </c>
+      <c r="F9" s="4">
         <v>0.15</v>
       </c>
     </row>

--- a/lab2/tabelas/tabelas comando conversor.xlsx
+++ b/lab2/tabelas/tabelas comando conversor.xlsx
@@ -22,24 +22,16 @@
     <t>Vo experimental [V]</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> Ângulo de Disparo - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>α [º]</t>
-    </r>
+    <t xml:space="preserve"> Ângulo de Disparo - α [º]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -51,8 +43,9 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -132,15 +125,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="3"/>
+      <left style="thin">
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color theme="3"/>
+        <color theme="0"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
       <bottom style="thin">
-        <color theme="3"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -151,7 +146,9 @@
       <right style="thin">
         <color theme="3"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
       <bottom style="thin">
         <color theme="3"/>
       </bottom>
@@ -159,14 +156,53 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="3"/>
+        <color theme="0"/>
       </left>
-      <right style="medium">
-        <color theme="3"/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="3"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -180,7 +216,7 @@
       <top style="medium">
         <color theme="3"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color theme="3"/>
       </bottom>
       <diagonal/>
@@ -195,7 +231,7 @@
       <top style="medium">
         <color theme="3"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color theme="3"/>
       </bottom>
       <diagonal/>
@@ -208,6 +244,21 @@
         <color theme="3"/>
       </right>
       <top style="medium">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
         <color theme="3"/>
       </top>
       <bottom style="medium">
@@ -219,38 +270,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,7 +441,7 @@
             <c:numRef>
               <c:f>'5.2.f'!$D$4:$D$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -414,7 +468,7 @@
             <c:numRef>
               <c:f>'5.2.f'!$E$4:$E$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>15.915494309189533</c:v>
@@ -469,7 +523,7 @@
             <c:numRef>
               <c:f>'5.2.f'!$D$4:$D$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -496,7 +550,7 @@
             <c:numRef>
               <c:f>'5.2.f'!$F$4:$F$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>14.5</c:v>
@@ -530,17 +584,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="205908192"/>
-        <c:axId val="205880736"/>
+        <c:axId val="216276360"/>
+        <c:axId val="216138472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="205908192"/>
+        <c:axId val="216276360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -577,7 +631,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205880736"/>
+        <c:crossAx val="216138472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -585,7 +639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205880736"/>
+        <c:axId val="216138472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -605,7 +659,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -636,7 +690,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205908192"/>
+        <c:crossAx val="216276360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1595,100 +1649,407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:F9"/>
+  <dimension ref="C2:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="6" width="22.7109375" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="23.85546875" style="3" customWidth="1"/>
+    <col min="5" max="6" width="22.7109375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="8" t="s">
+    <row r="2" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="5">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C4" s="4"/>
+      <c r="D4" s="9">
         <v>0</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="10">
         <f>(50/(2*PI())*(1+COS(D4*PI()/180)))</f>
         <v>15.915494309189533</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="11">
         <v>14.5</v>
       </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="1">
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C5" s="4"/>
+      <c r="D5" s="9">
         <v>30</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="10">
         <f t="shared" ref="E5:E9" si="0">(50/(2*PI())*(1+COS(D5*PI()/180)))</f>
         <v>14.849358347367168</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="11">
         <v>13.2</v>
       </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="1">
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+      <c r="D6" s="9">
         <v>60</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>11.93662073189215</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="11">
         <v>11</v>
       </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="1">
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
+      <c r="D7" s="9">
         <v>90</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>7.9577471545947667</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="11">
         <v>6.22</v>
       </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="1">
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="4"/>
+      <c r="D8" s="9">
         <v>120</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>3.9788735772973851</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="11">
         <v>2.08</v>
       </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="3">
+    <row r="9" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="4"/>
+      <c r="D9" s="12">
         <v>150</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="13">
         <f t="shared" si="0"/>
         <v>1.0661359618223656</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="14">
         <v>0.15</v>
       </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
